--- a/InnoLab2/DAGoPERT_Group_18.xlsx
+++ b/InnoLab2/DAGoPERT_Group_18.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\FH\FH_BIF4\Inno2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\FH\Sem_4\InnoLab_Documents\InnoLab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30F8395-2E31-42BB-8C93-BA4445F19037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7484B996-F11E-4146-8665-224649729288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="758" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -457,7 +457,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -552,6 +552,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1092,7 +1098,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1407,10 +1413,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1483,6 +1485,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3011,14 +3025,14 @@
   </sheetPr>
   <dimension ref="A1:Q358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="136" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="137" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" style="135" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="136" customWidth="1"/>
     <col min="3" max="3" width="29.85546875" style="51" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.5703125" style="51" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" style="123" customWidth="1"/>
@@ -3030,38 +3044,38 @@
     <col min="11" max="11" width="11.140625" style="52" customWidth="1"/>
     <col min="12" max="12" width="9.5703125" style="61" customWidth="1"/>
     <col min="13" max="13" width="14.28515625" style="64" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" style="127" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" style="126" customWidth="1"/>
     <col min="15" max="15" width="11.42578125" style="119"/>
     <col min="16" max="16" width="14.85546875" style="51" customWidth="1"/>
     <col min="17" max="17" width="16.5703125" style="120" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="11.42578125" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="138" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="146" t="s">
+    <row r="1" spans="1:17" s="137" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="148" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="148"/>
-      <c r="O1" s="146" t="s">
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="148" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="147"/>
-      <c r="Q1" s="148"/>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="150"/>
     </row>
     <row r="2" spans="1:17" s="53" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="129" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="104" t="s">
@@ -3073,7 +3087,7 @@
       <c r="D2" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="128" t="s">
+      <c r="E2" s="127" t="s">
         <v>72</v>
       </c>
       <c r="F2" s="105" t="s">
@@ -3114,11 +3128,11 @@
       </c>
     </row>
     <row r="3" spans="1:17" s="60" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="131"/>
+      <c r="A3" s="130"/>
       <c r="B3" s="54"/>
       <c r="C3" s="54"/>
       <c r="D3" s="54"/>
-      <c r="E3" s="129">
+      <c r="E3" s="128">
         <f>SUM(E4:E10001)</f>
         <v>172</v>
       </c>
@@ -3154,15 +3168,15 @@
       <c r="Q3" s="115"/>
     </row>
     <row r="4" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="132"/>
-      <c r="B4" s="133"/>
-      <c r="C4" s="143" t="s">
+      <c r="A4" s="131"/>
+      <c r="B4" s="132"/>
+      <c r="C4" s="142" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="143"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="143"/>
       <c r="I4" s="62" t="str">
         <f t="shared" ref="I4:I26" si="0">IF(OR(E4="",F4="",G4=""),"",(E4+(4*F4)+G4)/6)</f>
         <v/>
@@ -3190,26 +3204,26 @@
         <f t="shared" ref="O4:O66" si="5">IF(J4="","",INDEX(storypoints_kalibrierung_shirtsizes, MATCH(I4,storypoints_kalibrierung_aufsize,-1),3))</f>
         <v/>
       </c>
-      <c r="P4" s="144"/>
+      <c r="P4" s="143"/>
       <c r="Q4" s="118" t="str">
         <f t="shared" ref="Q4" si="6">IF(OR(O4="",P4=""),"",INDEX(businessvalue_kalibrierung, MATCH(O4,businessvalue_kalibrierung_aufwand,0),MATCH(P4,businessvalue_kalibrierung_businesswert,0)))</f>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:17" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="135"/>
-      <c r="B5" s="133"/>
-      <c r="C5" s="143"/>
-      <c r="D5" s="142" t="s">
+      <c r="A5" s="134"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="141" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="145">
+      <c r="E5" s="144">
         <v>24</v>
       </c>
-      <c r="F5" s="145">
+      <c r="F5" s="144">
         <v>28</v>
       </c>
-      <c r="G5" s="145">
+      <c r="G5" s="144">
         <v>36</v>
       </c>
       <c r="I5" s="62">
@@ -3239,7 +3253,7 @@
         <f t="shared" si="5"/>
         <v>L</v>
       </c>
-      <c r="P5" s="145" t="s">
+      <c r="P5" s="144" t="s">
         <v>35</v>
       </c>
       <c r="Q5" s="118" t="str">
@@ -3248,19 +3262,19 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="132"/>
-      <c r="B6" s="133"/>
-      <c r="C6" s="143"/>
-      <c r="D6" s="142" t="s">
+      <c r="A6" s="131"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="141" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="145">
+      <c r="E6" s="144">
         <v>8</v>
       </c>
-      <c r="F6" s="145">
+      <c r="F6" s="144">
         <v>12</v>
       </c>
-      <c r="G6" s="145">
+      <c r="G6" s="144">
         <v>28</v>
       </c>
       <c r="I6" s="62">
@@ -3290,7 +3304,7 @@
         <f t="shared" si="5"/>
         <v>L</v>
       </c>
-      <c r="P6" s="145" t="s">
+      <c r="P6" s="144" t="s">
         <v>34</v>
       </c>
       <c r="Q6" s="118" t="str">
@@ -3299,19 +3313,19 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="132"/>
-      <c r="B7" s="133"/>
-      <c r="C7" s="143"/>
-      <c r="D7" s="142" t="s">
+      <c r="A7" s="131"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="141" t="s">
         <v>100</v>
       </c>
-      <c r="E7" s="145">
+      <c r="E7" s="144">
         <v>8</v>
       </c>
-      <c r="F7" s="145">
+      <c r="F7" s="144">
         <v>8</v>
       </c>
-      <c r="G7" s="145">
+      <c r="G7" s="144">
         <v>12</v>
       </c>
       <c r="I7" s="62">
@@ -3341,7 +3355,7 @@
         <f t="shared" si="5"/>
         <v>L</v>
       </c>
-      <c r="P7" s="145" t="s">
+      <c r="P7" s="144" t="s">
         <v>31</v>
       </c>
       <c r="Q7" s="118" t="str">
@@ -3350,19 +3364,19 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="132"/>
+      <c r="A8" s="131"/>
       <c r="B8" s="51"/>
-      <c r="C8" s="143"/>
-      <c r="D8" s="142" t="s">
+      <c r="C8" s="142"/>
+      <c r="D8" s="141" t="s">
         <v>101</v>
       </c>
-      <c r="E8" s="145">
+      <c r="E8" s="144">
         <v>8</v>
       </c>
-      <c r="F8" s="145">
+      <c r="F8" s="144">
         <v>12</v>
       </c>
-      <c r="G8" s="145">
+      <c r="G8" s="144">
         <v>24</v>
       </c>
       <c r="I8" s="62">
@@ -3392,7 +3406,7 @@
         <f t="shared" si="5"/>
         <v>L</v>
       </c>
-      <c r="P8" s="145" t="s">
+      <c r="P8" s="144" t="s">
         <v>31</v>
       </c>
       <c r="Q8" s="118" t="str">
@@ -3401,19 +3415,19 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="132"/>
-      <c r="B9" s="133"/>
-      <c r="C9" s="143"/>
-      <c r="D9" s="142" t="s">
+      <c r="A9" s="131"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="145">
+      <c r="E9" s="144">
         <v>4</v>
       </c>
-      <c r="F9" s="145">
+      <c r="F9" s="144">
         <v>8</v>
       </c>
-      <c r="G9" s="145">
+      <c r="G9" s="144">
         <v>12</v>
       </c>
       <c r="I9" s="62">
@@ -3443,7 +3457,7 @@
         <f t="shared" si="5"/>
         <v>M</v>
       </c>
-      <c r="P9" s="145" t="s">
+      <c r="P9" s="144" t="s">
         <v>30</v>
       </c>
       <c r="Q9" s="118" t="str">
@@ -3452,13 +3466,13 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="132"/>
+      <c r="A10" s="131"/>
       <c r="B10" s="51"/>
-      <c r="C10" s="143"/>
-      <c r="D10" s="143"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="144"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="143"/>
+      <c r="F10" s="143"/>
+      <c r="G10" s="143"/>
       <c r="I10" s="62" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3486,22 +3500,22 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P10" s="144"/>
+      <c r="P10" s="143"/>
       <c r="Q10" s="118" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="132"/>
-      <c r="B11" s="133"/>
-      <c r="C11" s="143" t="s">
+      <c r="A11" s="131"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="142" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="143"/>
-      <c r="E11" s="144"/>
-      <c r="F11" s="144"/>
-      <c r="G11" s="144"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="143"/>
       <c r="I11" s="62" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3529,26 +3543,26 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P11" s="144"/>
+      <c r="P11" s="143"/>
       <c r="Q11" s="118" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:17" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="132"/>
-      <c r="B12" s="133"/>
-      <c r="C12" s="143"/>
-      <c r="D12" s="142" t="s">
+      <c r="A12" s="131"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="142"/>
+      <c r="D12" s="141" t="s">
         <v>103</v>
       </c>
-      <c r="E12" s="145">
+      <c r="E12" s="144">
         <v>20</v>
       </c>
-      <c r="F12" s="145">
+      <c r="F12" s="144">
         <v>28</v>
       </c>
-      <c r="G12" s="145">
+      <c r="G12" s="144">
         <v>36</v>
       </c>
       <c r="I12" s="62">
@@ -3578,7 +3592,7 @@
         <f t="shared" si="5"/>
         <v>L</v>
       </c>
-      <c r="P12" s="145" t="s">
+      <c r="P12" s="144" t="s">
         <v>35</v>
       </c>
       <c r="Q12" s="118" t="str">
@@ -3587,19 +3601,19 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="132"/>
-      <c r="B13" s="133"/>
-      <c r="C13" s="143"/>
-      <c r="D13" s="142" t="s">
+      <c r="A13" s="131"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="141" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="145">
+      <c r="E13" s="144">
         <v>8</v>
       </c>
-      <c r="F13" s="145">
+      <c r="F13" s="144">
         <v>12</v>
       </c>
-      <c r="G13" s="145">
+      <c r="G13" s="144">
         <v>12</v>
       </c>
       <c r="I13" s="62">
@@ -3629,7 +3643,7 @@
         <f t="shared" si="5"/>
         <v>L</v>
       </c>
-      <c r="P13" s="145" t="s">
+      <c r="P13" s="144" t="s">
         <v>35</v>
       </c>
       <c r="Q13" s="118" t="str">
@@ -3638,19 +3652,19 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="132"/>
-      <c r="B14" s="133"/>
-      <c r="C14" s="143"/>
-      <c r="D14" s="142" t="s">
+      <c r="A14" s="131"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="141" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="145">
+      <c r="E14" s="144">
         <v>4</v>
       </c>
-      <c r="F14" s="145">
+      <c r="F14" s="144">
         <v>12</v>
       </c>
-      <c r="G14" s="145">
+      <c r="G14" s="144">
         <v>16</v>
       </c>
       <c r="I14" s="62">
@@ -3680,7 +3694,7 @@
         <f t="shared" si="5"/>
         <v>L</v>
       </c>
-      <c r="P14" s="145" t="s">
+      <c r="P14" s="144" t="s">
         <v>34</v>
       </c>
       <c r="Q14" s="118" t="str">
@@ -3689,19 +3703,19 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="135"/>
-      <c r="B15" s="133"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="142" t="s">
+      <c r="A15" s="134"/>
+      <c r="B15" s="132"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="141" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="145">
+      <c r="E15" s="144">
         <v>12</v>
       </c>
-      <c r="F15" s="145">
+      <c r="F15" s="144">
         <v>16</v>
       </c>
-      <c r="G15" s="145">
+      <c r="G15" s="144">
         <v>32</v>
       </c>
       <c r="I15" s="62">
@@ -3731,7 +3745,7 @@
         <f t="shared" si="5"/>
         <v>L</v>
       </c>
-      <c r="P15" s="145" t="s">
+      <c r="P15" s="144" t="s">
         <v>30</v>
       </c>
       <c r="Q15" s="118" t="str">
@@ -3740,19 +3754,19 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="132"/>
-      <c r="B16" s="133"/>
-      <c r="C16" s="143"/>
-      <c r="D16" s="142" t="s">
+      <c r="A16" s="131"/>
+      <c r="B16" s="132"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="141" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="145">
+      <c r="E16" s="144">
         <v>4</v>
       </c>
-      <c r="F16" s="145">
+      <c r="F16" s="144">
         <v>8</v>
       </c>
-      <c r="G16" s="145">
+      <c r="G16" s="144">
         <v>16</v>
       </c>
       <c r="I16" s="62">
@@ -3782,7 +3796,7 @@
         <f t="shared" si="5"/>
         <v>L</v>
       </c>
-      <c r="P16" s="145" t="s">
+      <c r="P16" s="144" t="s">
         <v>30</v>
       </c>
       <c r="Q16" s="118" t="str">
@@ -3791,13 +3805,13 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="132"/>
-      <c r="B17" s="133"/>
-      <c r="C17" s="143"/>
-      <c r="D17" s="143"/>
-      <c r="E17" s="144"/>
-      <c r="F17" s="144"/>
-      <c r="G17" s="144"/>
+      <c r="A17" s="131"/>
+      <c r="B17" s="132"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="143"/>
       <c r="I17" s="62" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3825,22 +3839,22 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P17" s="144"/>
+      <c r="P17" s="143"/>
       <c r="Q17" s="118" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="132"/>
-      <c r="B18" s="133"/>
-      <c r="C18" s="143" t="s">
+      <c r="A18" s="131"/>
+      <c r="B18" s="132"/>
+      <c r="C18" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="143"/>
-      <c r="E18" s="144"/>
-      <c r="F18" s="144"/>
-      <c r="G18" s="144"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="143"/>
       <c r="I18" s="62" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3868,26 +3882,26 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P18" s="144"/>
+      <c r="P18" s="143"/>
       <c r="Q18" s="118" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="132"/>
-      <c r="B19" s="133"/>
-      <c r="C19" s="143"/>
-      <c r="D19" s="142" t="s">
+      <c r="A19" s="131"/>
+      <c r="B19" s="132"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="141" t="s">
         <v>106</v>
       </c>
-      <c r="E19" s="145">
+      <c r="E19" s="144">
         <v>12</v>
       </c>
-      <c r="F19" s="145">
+      <c r="F19" s="144">
         <v>16</v>
       </c>
-      <c r="G19" s="145">
+      <c r="G19" s="144">
         <v>24</v>
       </c>
       <c r="I19" s="62">
@@ -3917,7 +3931,7 @@
         <f t="shared" si="5"/>
         <v>L</v>
       </c>
-      <c r="P19" s="145" t="s">
+      <c r="P19" s="144" t="s">
         <v>33</v>
       </c>
       <c r="Q19" s="118" t="str">
@@ -3926,19 +3940,19 @@
       </c>
     </row>
     <row r="20" spans="1:17" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="132"/>
-      <c r="B20" s="133"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="142" t="s">
+      <c r="A20" s="131"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="141" t="s">
         <v>107</v>
       </c>
-      <c r="E20" s="145">
+      <c r="E20" s="144">
         <v>8</v>
       </c>
-      <c r="F20" s="145">
+      <c r="F20" s="144">
         <v>16</v>
       </c>
-      <c r="G20" s="145">
+      <c r="G20" s="144">
         <v>20</v>
       </c>
       <c r="I20" s="62">
@@ -3968,7 +3982,7 @@
         <f t="shared" si="5"/>
         <v>L</v>
       </c>
-      <c r="P20" s="145" t="s">
+      <c r="P20" s="144" t="s">
         <v>33</v>
       </c>
       <c r="Q20" s="118" t="str">
@@ -3977,19 +3991,19 @@
       </c>
     </row>
     <row r="21" spans="1:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="132"/>
-      <c r="B21" s="133"/>
-      <c r="C21" s="143"/>
-      <c r="D21" s="142" t="s">
+      <c r="A21" s="131"/>
+      <c r="B21" s="132"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="141" t="s">
         <v>108</v>
       </c>
-      <c r="E21" s="145">
+      <c r="E21" s="144">
         <v>4</v>
       </c>
-      <c r="F21" s="145">
+      <c r="F21" s="144">
         <v>4</v>
       </c>
-      <c r="G21" s="145">
+      <c r="G21" s="144">
         <v>12</v>
       </c>
       <c r="I21" s="62">
@@ -4019,7 +4033,7 @@
         <f t="shared" si="5"/>
         <v>M</v>
       </c>
-      <c r="P21" s="145" t="s">
+      <c r="P21" s="144" t="s">
         <v>32</v>
       </c>
       <c r="Q21" s="118" t="str">
@@ -4028,13 +4042,13 @@
       </c>
     </row>
     <row r="22" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="132"/>
-      <c r="B22" s="133"/>
-      <c r="C22" s="143"/>
-      <c r="D22" s="143"/>
-      <c r="E22" s="145"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="145"/>
+      <c r="A22" s="131"/>
+      <c r="B22" s="132"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="144"/>
+      <c r="G22" s="144"/>
       <c r="I22" s="62" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4062,22 +4076,22 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P22" s="145"/>
+      <c r="P22" s="144"/>
       <c r="Q22" s="118" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="132"/>
-      <c r="B23" s="133"/>
-      <c r="C23" s="143" t="s">
+      <c r="A23" s="131"/>
+      <c r="B23" s="132"/>
+      <c r="C23" s="142" t="s">
         <v>109</v>
       </c>
-      <c r="D23" s="143"/>
-      <c r="E23" s="145"/>
-      <c r="F23" s="145"/>
-      <c r="G23" s="145"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="144"/>
+      <c r="F23" s="144"/>
+      <c r="G23" s="144"/>
       <c r="I23" s="62" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4105,26 +4119,26 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P23" s="145"/>
+      <c r="P23" s="144"/>
       <c r="Q23" s="118" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:17" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="132"/>
-      <c r="B24" s="133"/>
-      <c r="C24" s="143"/>
-      <c r="D24" s="142" t="s">
+      <c r="A24" s="131"/>
+      <c r="B24" s="132"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="141" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="145">
+      <c r="E24" s="144">
         <v>8</v>
       </c>
-      <c r="F24" s="145">
+      <c r="F24" s="144">
         <v>16</v>
       </c>
-      <c r="G24" s="145">
+      <c r="G24" s="144">
         <v>20</v>
       </c>
       <c r="I24" s="62">
@@ -4154,7 +4168,7 @@
         <f t="shared" si="5"/>
         <v>L</v>
       </c>
-      <c r="P24" s="145" t="s">
+      <c r="P24" s="144" t="s">
         <v>32</v>
       </c>
       <c r="Q24" s="118" t="str">
@@ -4163,19 +4177,19 @@
       </c>
     </row>
     <row r="25" spans="1:17" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="135"/>
-      <c r="B25" s="133"/>
-      <c r="C25" s="143"/>
-      <c r="D25" s="142" t="s">
+      <c r="A25" s="134"/>
+      <c r="B25" s="132"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="141" t="s">
         <v>110</v>
       </c>
-      <c r="E25" s="145">
+      <c r="E25" s="144">
         <v>4</v>
       </c>
-      <c r="F25" s="145">
+      <c r="F25" s="144">
         <v>8</v>
       </c>
-      <c r="G25" s="145">
+      <c r="G25" s="144">
         <v>8</v>
       </c>
       <c r="I25" s="62">
@@ -4205,7 +4219,7 @@
         <f t="shared" si="5"/>
         <v>M</v>
       </c>
-      <c r="P25" s="145" t="s">
+      <c r="P25" s="144" t="s">
         <v>32</v>
       </c>
       <c r="Q25" s="118" t="str">
@@ -4214,18 +4228,18 @@
       </c>
     </row>
     <row r="26" spans="1:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="133"/>
-      <c r="C26" s="143"/>
-      <c r="D26" s="142" t="s">
+      <c r="B26" s="132"/>
+      <c r="C26" s="142"/>
+      <c r="D26" s="141" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="145">
+      <c r="E26" s="144">
         <v>12</v>
       </c>
-      <c r="F26" s="145">
+      <c r="F26" s="144">
         <v>16</v>
       </c>
-      <c r="G26" s="145">
+      <c r="G26" s="144">
         <v>16</v>
       </c>
       <c r="I26" s="62">
@@ -4255,7 +4269,7 @@
         <f t="shared" si="5"/>
         <v>L</v>
       </c>
-      <c r="P26" s="145" t="s">
+      <c r="P26" s="144" t="s">
         <v>31</v>
       </c>
       <c r="Q26" s="118" t="str">
@@ -4264,12 +4278,12 @@
       </c>
     </row>
     <row r="27" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="133"/>
-      <c r="C27" s="143"/>
-      <c r="D27" s="143"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="145"/>
+      <c r="B27" s="132"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="144"/>
+      <c r="F27" s="144"/>
+      <c r="G27" s="144"/>
       <c r="I27" s="62" t="str">
         <f t="shared" ref="I27:I68" si="12">IF(OR(E27="",F27="",G27=""),"",(E27+(4*F27)+G27)/6)</f>
         <v/>
@@ -4297,21 +4311,21 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P27" s="145"/>
+      <c r="P27" s="144"/>
       <c r="Q27" s="118" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="133"/>
-      <c r="C28" s="143" t="s">
+      <c r="B28" s="132"/>
+      <c r="C28" s="142" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="143"/>
-      <c r="E28" s="145"/>
-      <c r="F28" s="145"/>
-      <c r="G28" s="145"/>
+      <c r="D28" s="142"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="144"/>
+      <c r="G28" s="144"/>
       <c r="I28" s="62" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -4339,26 +4353,26 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P28" s="145"/>
+      <c r="P28" s="144"/>
       <c r="Q28" s="118" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:17" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="135"/>
-      <c r="B29" s="133"/>
-      <c r="C29" s="143"/>
-      <c r="D29" s="142" t="s">
+      <c r="A29" s="134"/>
+      <c r="B29" s="132"/>
+      <c r="C29" s="142"/>
+      <c r="D29" s="141" t="s">
         <v>111</v>
       </c>
-      <c r="E29" s="145">
+      <c r="E29" s="144">
         <v>4</v>
       </c>
-      <c r="F29" s="145">
+      <c r="F29" s="144">
         <v>4</v>
       </c>
-      <c r="G29" s="145">
+      <c r="G29" s="144">
         <v>8</v>
       </c>
       <c r="I29" s="62">
@@ -4388,7 +4402,7 @@
         <f t="shared" si="5"/>
         <v>M</v>
       </c>
-      <c r="P29" s="145" t="s">
+      <c r="P29" s="144" t="s">
         <v>32</v>
       </c>
       <c r="Q29" s="118" t="str">
@@ -4397,19 +4411,19 @@
       </c>
     </row>
     <row r="30" spans="1:17" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="132"/>
-      <c r="B30" s="133"/>
-      <c r="C30" s="143"/>
-      <c r="D30" s="142" t="s">
+      <c r="A30" s="131"/>
+      <c r="B30" s="132"/>
+      <c r="C30" s="142"/>
+      <c r="D30" s="141" t="s">
         <v>112</v>
       </c>
-      <c r="E30" s="145">
+      <c r="E30" s="144">
         <v>4</v>
       </c>
-      <c r="F30" s="145">
+      <c r="F30" s="144">
         <v>4</v>
       </c>
-      <c r="G30" s="145">
+      <c r="G30" s="144">
         <v>8</v>
       </c>
       <c r="I30" s="62">
@@ -4439,7 +4453,7 @@
         <f t="shared" si="5"/>
         <v>M</v>
       </c>
-      <c r="P30" s="145" t="s">
+      <c r="P30" s="144" t="s">
         <v>32</v>
       </c>
       <c r="Q30" s="118" t="str">
@@ -4448,19 +4462,19 @@
       </c>
     </row>
     <row r="31" spans="1:17" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="132"/>
-      <c r="B31" s="133"/>
-      <c r="C31" s="143"/>
-      <c r="D31" s="142" t="s">
+      <c r="A31" s="131"/>
+      <c r="B31" s="132"/>
+      <c r="C31" s="142"/>
+      <c r="D31" s="141" t="s">
         <v>113</v>
       </c>
-      <c r="E31" s="145">
+      <c r="E31" s="144">
         <v>4</v>
       </c>
-      <c r="F31" s="145">
+      <c r="F31" s="144">
         <v>4</v>
       </c>
-      <c r="G31" s="145">
+      <c r="G31" s="144">
         <v>4</v>
       </c>
       <c r="I31" s="62">
@@ -4490,7 +4504,7 @@
         <f t="shared" si="5"/>
         <v>M</v>
       </c>
-      <c r="P31" s="145" t="s">
+      <c r="P31" s="144" t="s">
         <v>32</v>
       </c>
       <c r="Q31" s="118" t="str">
@@ -4499,19 +4513,19 @@
       </c>
     </row>
     <row r="32" spans="1:17" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="132"/>
-      <c r="B32" s="133"/>
-      <c r="C32" s="143"/>
-      <c r="D32" s="142" t="s">
+      <c r="A32" s="131"/>
+      <c r="B32" s="132"/>
+      <c r="C32" s="142"/>
+      <c r="D32" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="E32" s="145">
+      <c r="E32" s="144">
         <v>8</v>
       </c>
-      <c r="F32" s="145">
+      <c r="F32" s="144">
         <v>8</v>
       </c>
-      <c r="G32" s="145">
+      <c r="G32" s="144">
         <v>12</v>
       </c>
       <c r="I32" s="62">
@@ -4541,7 +4555,7 @@
         <f t="shared" si="5"/>
         <v>L</v>
       </c>
-      <c r="P32" s="145" t="s">
+      <c r="P32" s="144" t="s">
         <v>31</v>
       </c>
       <c r="Q32" s="118" t="str">
@@ -4550,19 +4564,19 @@
       </c>
     </row>
     <row r="33" spans="1:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="132"/>
-      <c r="B33" s="133"/>
-      <c r="C33" s="143"/>
-      <c r="D33" s="142" t="s">
+      <c r="A33" s="131"/>
+      <c r="B33" s="132"/>
+      <c r="C33" s="142"/>
+      <c r="D33" s="141" t="s">
         <v>115</v>
       </c>
-      <c r="E33" s="145">
+      <c r="E33" s="144">
         <v>4</v>
       </c>
-      <c r="F33" s="145">
+      <c r="F33" s="144">
         <v>12</v>
       </c>
-      <c r="G33" s="145">
+      <c r="G33" s="144">
         <v>16</v>
       </c>
       <c r="I33" s="62">
@@ -4592,7 +4606,7 @@
         <f t="shared" si="5"/>
         <v>L</v>
       </c>
-      <c r="P33" s="145" t="s">
+      <c r="P33" s="144" t="s">
         <v>30</v>
       </c>
       <c r="Q33" s="118" t="str">
@@ -4601,9 +4615,9 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="132"/>
-      <c r="B34" s="133"/>
-      <c r="C34" s="134"/>
+      <c r="A34" s="131"/>
+      <c r="B34" s="132"/>
+      <c r="C34" s="133"/>
       <c r="E34" s="117"/>
       <c r="F34" s="117"/>
       <c r="G34" s="117"/>
@@ -4641,7 +4655,7 @@
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B35" s="133"/>
+      <c r="B35" s="132"/>
       <c r="E35" s="117"/>
       <c r="F35" s="117"/>
       <c r="G35" s="117"/>
@@ -4679,8 +4693,8 @@
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="135"/>
-      <c r="B36" s="133"/>
+      <c r="A36" s="134"/>
+      <c r="B36" s="132"/>
       <c r="E36" s="117"/>
       <c r="F36" s="117"/>
       <c r="G36" s="117"/>
@@ -4718,8 +4732,8 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="132"/>
-      <c r="B37" s="133"/>
+      <c r="A37" s="131"/>
+      <c r="B37" s="132"/>
       <c r="E37" s="117"/>
       <c r="F37" s="117"/>
       <c r="G37" s="117"/>
@@ -4757,8 +4771,8 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="132"/>
-      <c r="B38" s="133"/>
+      <c r="A38" s="131"/>
+      <c r="B38" s="132"/>
       <c r="E38" s="117"/>
       <c r="F38" s="117"/>
       <c r="G38" s="117"/>
@@ -4796,8 +4810,8 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="132"/>
-      <c r="B39" s="133"/>
+      <c r="A39" s="131"/>
+      <c r="B39" s="132"/>
       <c r="E39" s="117"/>
       <c r="F39" s="117"/>
       <c r="G39" s="117"/>
@@ -4834,9 +4848,9 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="132"/>
-      <c r="B40" s="133"/>
+    <row r="40" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="131"/>
+      <c r="B40" s="132"/>
       <c r="E40" s="117"/>
       <c r="F40" s="117"/>
       <c r="G40" s="117"/>
@@ -4873,8 +4887,8 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B41" s="133"/>
+    <row r="41" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="132"/>
       <c r="E41" s="117"/>
       <c r="F41" s="117"/>
       <c r="G41" s="117"/>
@@ -4905,15 +4919,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P41" s="117"/>
+      <c r="P41" s="143"/>
       <c r="Q41" s="118" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42" s="135"/>
-      <c r="B42" s="133"/>
+    <row r="42" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="134"/>
+      <c r="B42" s="132"/>
       <c r="E42" s="117"/>
       <c r="F42" s="117"/>
       <c r="G42" s="117"/>
@@ -4944,15 +4958,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P42" s="117"/>
+      <c r="P42" s="143"/>
       <c r="Q42" s="118" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="132"/>
-      <c r="B43" s="133"/>
+      <c r="A43" s="131"/>
+      <c r="B43" s="132"/>
       <c r="E43" s="117"/>
       <c r="F43" s="117"/>
       <c r="G43" s="117"/>
@@ -4989,10 +5003,10 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="132"/>
-      <c r="B44" s="133"/>
-      <c r="C44" s="134"/>
+    <row r="44" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="131"/>
+      <c r="B44" s="132"/>
+      <c r="C44" s="133"/>
       <c r="E44" s="117"/>
       <c r="F44" s="117"/>
       <c r="G44" s="117"/>
@@ -5029,12 +5043,13 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="132"/>
-      <c r="B45" s="133"/>
-      <c r="E45" s="117"/>
-      <c r="F45" s="117"/>
-      <c r="G45" s="117"/>
+    <row r="45" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="131"/>
+      <c r="B45" s="132"/>
+      <c r="D45" s="142"/>
+      <c r="E45" s="143"/>
+      <c r="F45" s="143"/>
+      <c r="G45" s="143"/>
       <c r="I45" s="62" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5062,18 +5077,19 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P45" s="117"/>
+      <c r="P45" s="143"/>
       <c r="Q45" s="118" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" s="132"/>
-      <c r="B46" s="133"/>
-      <c r="E46" s="117"/>
-      <c r="F46" s="117"/>
-      <c r="G46" s="117"/>
+    <row r="46" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="131"/>
+      <c r="B46" s="132"/>
+      <c r="D46" s="142"/>
+      <c r="E46" s="143"/>
+      <c r="F46" s="143"/>
+      <c r="G46" s="143"/>
       <c r="I46" s="62" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5101,13 +5117,17 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P46" s="117"/>
+      <c r="P46" s="143"/>
       <c r="Q46" s="118" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="142"/>
+      <c r="E47" s="145"/>
+      <c r="F47" s="145"/>
+      <c r="G47" s="145"/>
       <c r="I47" s="62" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5135,14 +5155,17 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P47" s="117"/>
+      <c r="P47" s="143"/>
       <c r="Q47" s="118" t="str">
         <f t="shared" ref="Q47:Q110" si="18">IF(OR(O47="",P47=""),"",INDEX(businessvalue_kalibrierung, MATCH(O47,businessvalue_kalibrierung_aufwand,0),MATCH(P47,businessvalue_kalibrierung_businesswert,0)))</f>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B48" s="133"/>
+    <row r="48" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="132"/>
+      <c r="E48" s="145"/>
+      <c r="F48" s="145"/>
+      <c r="G48" s="145"/>
       <c r="I48" s="62" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5170,14 +5193,18 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P48" s="117"/>
+      <c r="P48" s="143"/>
       <c r="Q48" s="118" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B49" s="133"/>
+    <row r="49" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="132"/>
+      <c r="C49" s="133"/>
+      <c r="E49" s="145"/>
+      <c r="F49" s="145"/>
+      <c r="G49" s="145"/>
       <c r="I49" s="62" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5205,14 +5232,18 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P49" s="117"/>
+      <c r="P49" s="143"/>
       <c r="Q49" s="118" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B50" s="133"/>
+    <row r="50" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="132"/>
+      <c r="D50" s="142"/>
+      <c r="E50" s="145"/>
+      <c r="F50" s="145"/>
+      <c r="G50" s="145"/>
       <c r="I50" s="62" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5240,13 +5271,17 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P50" s="117"/>
+      <c r="P50" s="143"/>
       <c r="Q50" s="118" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="142"/>
+      <c r="E51" s="145"/>
+      <c r="F51" s="145"/>
+      <c r="G51" s="145"/>
       <c r="I51" s="62" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5274,14 +5309,18 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P51" s="117"/>
+      <c r="P51" s="143"/>
       <c r="Q51" s="118" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B52" s="133"/>
+    <row r="52" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="132"/>
+      <c r="D52" s="142"/>
+      <c r="E52" s="145"/>
+      <c r="F52" s="145"/>
+      <c r="G52" s="145"/>
       <c r="I52" s="62" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5309,14 +5348,17 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P52" s="117"/>
+      <c r="P52" s="143"/>
       <c r="Q52" s="118" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B53" s="133"/>
+    <row r="53" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="132"/>
+      <c r="E53" s="145"/>
+      <c r="F53" s="145"/>
+      <c r="G53" s="145"/>
       <c r="I53" s="62" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5344,13 +5386,17 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P53" s="117"/>
+      <c r="P53" s="143"/>
       <c r="Q53" s="118" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="133"/>
+      <c r="E54" s="145"/>
+      <c r="F54" s="145"/>
+      <c r="G54" s="145"/>
       <c r="I54" s="62" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5378,16 +5424,17 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P54" s="117"/>
+      <c r="P54" s="143"/>
       <c r="Q54" s="118" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="E55" s="124"/>
-      <c r="F55" s="124"/>
-      <c r="G55" s="124"/>
+    <row r="55" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D55" s="142"/>
+      <c r="E55" s="145"/>
+      <c r="F55" s="145"/>
+      <c r="G55" s="145"/>
       <c r="I55" s="62" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5415,19 +5462,19 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P55" s="117"/>
+      <c r="P55" s="143"/>
       <c r="Q55" s="118" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C56" s="123"/>
-      <c r="D56" s="123"/>
-      <c r="E56" s="51"/>
-      <c r="F56" s="125"/>
-      <c r="G56" s="126"/>
-      <c r="H56" s="126"/>
+      <c r="D56" s="145"/>
+      <c r="E56" s="143"/>
+      <c r="F56" s="147"/>
+      <c r="G56" s="147"/>
+      <c r="H56" s="125"/>
       <c r="I56" s="62" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5455,19 +5502,19 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P56" s="117"/>
+      <c r="P56" s="143"/>
       <c r="Q56" s="118" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C57" s="123"/>
       <c r="D57" s="123"/>
-      <c r="E57" s="51"/>
-      <c r="F57" s="125"/>
-      <c r="G57" s="126"/>
-      <c r="H57" s="126"/>
+      <c r="E57" s="142"/>
+      <c r="F57" s="147"/>
+      <c r="G57" s="147"/>
+      <c r="H57" s="125"/>
       <c r="I57" s="62" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5495,19 +5542,19 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P57" s="117"/>
+      <c r="P57" s="143"/>
       <c r="Q57" s="118" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C58" s="123"/>
+    <row r="58" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="146"/>
       <c r="D58" s="123"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="125"/>
-      <c r="G58" s="126"/>
-      <c r="H58" s="126"/>
+      <c r="E58" s="142"/>
+      <c r="F58" s="147"/>
+      <c r="G58" s="147"/>
+      <c r="H58" s="125"/>
       <c r="I58" s="62" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5535,19 +5582,19 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P58" s="117"/>
+      <c r="P58" s="143"/>
       <c r="Q58" s="118" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C59" s="123"/>
       <c r="D59" s="123"/>
-      <c r="E59" s="51"/>
-      <c r="F59" s="125"/>
-      <c r="G59" s="126"/>
-      <c r="H59" s="126"/>
+      <c r="E59" s="143"/>
+      <c r="F59" s="147"/>
+      <c r="G59" s="147"/>
+      <c r="H59" s="125"/>
       <c r="I59" s="62" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5575,19 +5622,19 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P59" s="117"/>
+      <c r="P59" s="143"/>
       <c r="Q59" s="118" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C60" s="123"/>
       <c r="D60" s="123"/>
-      <c r="E60" s="51"/>
-      <c r="F60" s="125"/>
-      <c r="G60" s="126"/>
-      <c r="H60" s="126"/>
+      <c r="E60" s="143"/>
+      <c r="F60" s="147"/>
+      <c r="G60" s="147"/>
+      <c r="H60" s="125"/>
       <c r="I60" s="62" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5615,19 +5662,19 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P60" s="117"/>
+      <c r="P60" s="143"/>
       <c r="Q60" s="118" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C61" s="123"/>
       <c r="D61" s="123"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="125"/>
-      <c r="G61" s="126"/>
-      <c r="H61" s="126"/>
+      <c r="E61" s="143"/>
+      <c r="F61" s="147"/>
+      <c r="G61" s="147"/>
+      <c r="H61" s="125"/>
       <c r="I61" s="62" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5655,19 +5702,19 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P61" s="117"/>
+      <c r="P61" s="143"/>
       <c r="Q61" s="118" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C62" s="123"/>
       <c r="D62" s="123"/>
-      <c r="E62" s="51"/>
-      <c r="F62" s="125"/>
-      <c r="G62" s="126"/>
-      <c r="H62" s="126"/>
+      <c r="E62" s="143"/>
+      <c r="F62" s="147"/>
+      <c r="G62" s="147"/>
+      <c r="H62" s="125"/>
       <c r="I62" s="62" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5695,19 +5742,19 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P62" s="117"/>
+      <c r="P62" s="143"/>
       <c r="Q62" s="118" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C63" s="123"/>
       <c r="D63" s="123"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="125"/>
-      <c r="G63" s="126"/>
-      <c r="H63" s="126"/>
+      <c r="E63" s="143"/>
+      <c r="F63" s="147"/>
+      <c r="G63" s="147"/>
+      <c r="H63" s="125"/>
       <c r="I63" s="62" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5735,19 +5782,19 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P63" s="117"/>
+      <c r="P63" s="143"/>
       <c r="Q63" s="118" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C64" s="123"/>
       <c r="D64" s="123"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="125"/>
-      <c r="G64" s="126"/>
-      <c r="H64" s="126"/>
+      <c r="E64" s="143"/>
+      <c r="F64" s="147"/>
+      <c r="G64" s="147"/>
+      <c r="H64" s="125"/>
       <c r="I64" s="62" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5775,19 +5822,19 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P64" s="117"/>
+      <c r="P64" s="143"/>
       <c r="Q64" s="118" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="65" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C65" s="123"/>
       <c r="D65" s="123"/>
-      <c r="E65" s="51"/>
-      <c r="F65" s="125"/>
-      <c r="G65" s="126"/>
-      <c r="H65" s="126"/>
+      <c r="E65" s="143"/>
+      <c r="F65" s="147"/>
+      <c r="G65" s="147"/>
+      <c r="H65" s="125"/>
       <c r="I65" s="62" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5815,19 +5862,19 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P65" s="117"/>
+      <c r="P65" s="143"/>
       <c r="Q65" s="118" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="66" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C66" s="123"/>
       <c r="D66" s="123"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="125"/>
-      <c r="G66" s="126"/>
-      <c r="H66" s="126"/>
+      <c r="E66" s="143"/>
+      <c r="F66" s="147"/>
+      <c r="G66" s="147"/>
+      <c r="H66" s="125"/>
       <c r="I66" s="62" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5855,19 +5902,19 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P66" s="117"/>
+      <c r="P66" s="143"/>
       <c r="Q66" s="118" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="67" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C67" s="123"/>
       <c r="D67" s="123"/>
-      <c r="E67" s="51"/>
-      <c r="F67" s="125"/>
-      <c r="G67" s="126"/>
-      <c r="H67" s="126"/>
+      <c r="E67" s="143"/>
+      <c r="F67" s="147"/>
+      <c r="G67" s="147"/>
+      <c r="H67" s="125"/>
       <c r="I67" s="62" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5895,19 +5942,19 @@
         <f t="shared" ref="O67:O130" si="19">IF(J67="","",INDEX(storypoints_kalibrierung_shirtsizes, MATCH(I67,storypoints_kalibrierung_aufsize,-1),3))</f>
         <v/>
       </c>
-      <c r="P67" s="117"/>
+      <c r="P67" s="143"/>
       <c r="Q67" s="118" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="68" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C68" s="123"/>
       <c r="D68" s="123"/>
-      <c r="E68" s="51"/>
-      <c r="F68" s="125"/>
-      <c r="G68" s="126"/>
-      <c r="H68" s="126"/>
+      <c r="E68" s="143"/>
+      <c r="F68" s="147"/>
+      <c r="G68" s="147"/>
+      <c r="H68" s="125"/>
       <c r="I68" s="62" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5935,19 +5982,19 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="P68" s="117"/>
+      <c r="P68" s="143"/>
       <c r="Q68" s="118" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C69" s="123"/>
       <c r="D69" s="123"/>
-      <c r="E69" s="51"/>
-      <c r="F69" s="125"/>
-      <c r="G69" s="126"/>
-      <c r="H69" s="126"/>
+      <c r="E69" s="143"/>
+      <c r="F69" s="147"/>
+      <c r="G69" s="147"/>
+      <c r="H69" s="125"/>
       <c r="I69" s="62" t="str">
         <f t="shared" ref="I69:I132" si="20">IF(OR(E69="",F69="",G69=""),"",(E69+(4*F69)+G69)/6)</f>
         <v/>
@@ -5975,19 +6022,19 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="P69" s="117"/>
+      <c r="P69" s="143"/>
       <c r="Q69" s="118" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C70" s="123"/>
       <c r="D70" s="123"/>
-      <c r="E70" s="51"/>
-      <c r="F70" s="125"/>
-      <c r="G70" s="126"/>
-      <c r="H70" s="126"/>
+      <c r="E70" s="143"/>
+      <c r="F70" s="147"/>
+      <c r="G70" s="147"/>
+      <c r="H70" s="125"/>
       <c r="I70" s="62" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -6015,19 +6062,19 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="P70" s="117"/>
+      <c r="P70" s="143"/>
       <c r="Q70" s="118" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="71" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C71" s="123"/>
       <c r="D71" s="123"/>
-      <c r="E71" s="51"/>
-      <c r="F71" s="125"/>
-      <c r="G71" s="126"/>
-      <c r="H71" s="126"/>
+      <c r="E71" s="143"/>
+      <c r="F71" s="147"/>
+      <c r="G71" s="147"/>
+      <c r="H71" s="125"/>
       <c r="I71" s="62" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -6055,19 +6102,19 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="P71" s="117"/>
+      <c r="P71" s="143"/>
       <c r="Q71" s="118" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="72" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C72" s="123"/>
       <c r="D72" s="123"/>
-      <c r="E72" s="51"/>
-      <c r="F72" s="125"/>
-      <c r="G72" s="126"/>
-      <c r="H72" s="126"/>
+      <c r="E72" s="142"/>
+      <c r="F72" s="147"/>
+      <c r="G72" s="147"/>
+      <c r="H72" s="125"/>
       <c r="I72" s="62" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -6095,19 +6142,19 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="P72" s="117"/>
+      <c r="P72" s="143"/>
       <c r="Q72" s="118" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C73" s="123"/>
+    <row r="73" spans="3:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C73" s="146"/>
       <c r="D73" s="123"/>
-      <c r="E73" s="51"/>
-      <c r="F73" s="125"/>
-      <c r="G73" s="126"/>
-      <c r="H73" s="126"/>
+      <c r="E73" s="142"/>
+      <c r="F73" s="147"/>
+      <c r="G73" s="147"/>
+      <c r="H73" s="125"/>
       <c r="I73" s="62" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -6135,19 +6182,19 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="P73" s="117"/>
+      <c r="P73" s="143"/>
       <c r="Q73" s="118" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C74" s="123"/>
       <c r="D74" s="123"/>
-      <c r="E74" s="51"/>
-      <c r="F74" s="125"/>
-      <c r="G74" s="126"/>
-      <c r="H74" s="126"/>
+      <c r="E74" s="143"/>
+      <c r="F74" s="147"/>
+      <c r="G74" s="147"/>
+      <c r="H74" s="125"/>
       <c r="I74" s="62" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -6175,19 +6222,19 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="P74" s="117"/>
+      <c r="P74" s="143"/>
       <c r="Q74" s="118" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C75" s="123"/>
       <c r="D75" s="123"/>
-      <c r="E75" s="51"/>
-      <c r="F75" s="125"/>
-      <c r="G75" s="126"/>
-      <c r="H75" s="126"/>
+      <c r="E75" s="143"/>
+      <c r="F75" s="147"/>
+      <c r="G75" s="147"/>
+      <c r="H75" s="125"/>
       <c r="I75" s="62" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -6215,19 +6262,19 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="P75" s="117"/>
+      <c r="P75" s="143"/>
       <c r="Q75" s="118" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C76" s="123"/>
       <c r="D76" s="123"/>
-      <c r="E76" s="51"/>
-      <c r="F76" s="125"/>
-      <c r="G76" s="126"/>
-      <c r="H76" s="126"/>
+      <c r="E76" s="143"/>
+      <c r="F76" s="147"/>
+      <c r="G76" s="147"/>
+      <c r="H76" s="125"/>
       <c r="I76" s="62" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -6255,19 +6302,19 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="P76" s="117"/>
+      <c r="P76" s="143"/>
       <c r="Q76" s="118" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="77" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C77" s="123"/>
       <c r="D77" s="123"/>
-      <c r="E77" s="51"/>
-      <c r="F77" s="125"/>
-      <c r="G77" s="126"/>
-      <c r="H77" s="126"/>
+      <c r="E77" s="143"/>
+      <c r="F77" s="147"/>
+      <c r="G77" s="147"/>
+      <c r="H77" s="125"/>
       <c r="I77" s="62" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -6295,19 +6342,19 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="P77" s="117"/>
+      <c r="P77" s="143"/>
       <c r="Q77" s="118" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="78" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C78" s="123"/>
       <c r="D78" s="123"/>
-      <c r="E78" s="51"/>
-      <c r="F78" s="125"/>
-      <c r="G78" s="126"/>
-      <c r="H78" s="126"/>
+      <c r="E78" s="143"/>
+      <c r="F78" s="147"/>
+      <c r="G78" s="147"/>
+      <c r="H78" s="125"/>
       <c r="I78" s="62" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -6335,19 +6382,19 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="P78" s="117"/>
+      <c r="P78" s="143"/>
       <c r="Q78" s="118" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="79" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C79" s="123"/>
       <c r="D79" s="123"/>
-      <c r="E79" s="51"/>
-      <c r="F79" s="125"/>
-      <c r="G79" s="126"/>
-      <c r="H79" s="126"/>
+      <c r="E79" s="143"/>
+      <c r="F79" s="147"/>
+      <c r="G79" s="147"/>
+      <c r="H79" s="125"/>
       <c r="I79" s="62" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -6375,7 +6422,7 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="P79" s="117"/>
+      <c r="P79" s="143"/>
       <c r="Q79" s="118" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -6385,9 +6432,9 @@
       <c r="C80" s="123"/>
       <c r="D80" s="123"/>
       <c r="E80" s="51"/>
-      <c r="F80" s="125"/>
-      <c r="G80" s="126"/>
-      <c r="H80" s="126"/>
+      <c r="F80" s="124"/>
+      <c r="G80" s="125"/>
+      <c r="H80" s="125"/>
       <c r="I80" s="62" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -6425,9 +6472,9 @@
       <c r="C81" s="123"/>
       <c r="D81" s="123"/>
       <c r="E81" s="51"/>
-      <c r="F81" s="125"/>
-      <c r="G81" s="126"/>
-      <c r="H81" s="126"/>
+      <c r="F81" s="124"/>
+      <c r="G81" s="125"/>
+      <c r="H81" s="125"/>
       <c r="I81" s="62" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -6465,9 +6512,9 @@
       <c r="C82" s="123"/>
       <c r="D82" s="123"/>
       <c r="E82" s="51"/>
-      <c r="F82" s="125"/>
-      <c r="G82" s="126"/>
-      <c r="H82" s="126"/>
+      <c r="F82" s="124"/>
+      <c r="G82" s="125"/>
+      <c r="H82" s="125"/>
       <c r="I82" s="62" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -6505,9 +6552,9 @@
       <c r="C83" s="123"/>
       <c r="D83" s="123"/>
       <c r="E83" s="51"/>
-      <c r="F83" s="125"/>
-      <c r="G83" s="126"/>
-      <c r="H83" s="126"/>
+      <c r="F83" s="124"/>
+      <c r="G83" s="125"/>
+      <c r="H83" s="125"/>
       <c r="I83" s="62" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -6545,9 +6592,9 @@
       <c r="C84" s="123"/>
       <c r="D84" s="123"/>
       <c r="E84" s="51"/>
-      <c r="F84" s="125"/>
-      <c r="G84" s="126"/>
-      <c r="H84" s="126"/>
+      <c r="F84" s="124"/>
+      <c r="G84" s="125"/>
+      <c r="H84" s="125"/>
       <c r="I84" s="62" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -6585,9 +6632,9 @@
       <c r="C85" s="123"/>
       <c r="D85" s="123"/>
       <c r="E85" s="51"/>
-      <c r="F85" s="125"/>
-      <c r="G85" s="126"/>
-      <c r="H85" s="126"/>
+      <c r="F85" s="124"/>
+      <c r="G85" s="125"/>
+      <c r="H85" s="125"/>
       <c r="I85" s="62" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -6625,9 +6672,9 @@
       <c r="C86" s="123"/>
       <c r="D86" s="123"/>
       <c r="E86" s="51"/>
-      <c r="F86" s="125"/>
-      <c r="G86" s="126"/>
-      <c r="H86" s="126"/>
+      <c r="F86" s="124"/>
+      <c r="G86" s="125"/>
+      <c r="H86" s="125"/>
       <c r="I86" s="62" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -6665,9 +6712,9 @@
       <c r="C87" s="123"/>
       <c r="D87" s="123"/>
       <c r="E87" s="51"/>
-      <c r="F87" s="125"/>
-      <c r="G87" s="126"/>
-      <c r="H87" s="126"/>
+      <c r="F87" s="124"/>
+      <c r="G87" s="125"/>
+      <c r="H87" s="125"/>
       <c r="I87" s="62" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -6705,9 +6752,9 @@
       <c r="C88" s="123"/>
       <c r="D88" s="123"/>
       <c r="E88" s="51"/>
-      <c r="F88" s="125"/>
-      <c r="G88" s="126"/>
-      <c r="H88" s="126"/>
+      <c r="F88" s="124"/>
+      <c r="G88" s="125"/>
+      <c r="H88" s="125"/>
       <c r="I88" s="62" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -6745,9 +6792,9 @@
       <c r="C89" s="123"/>
       <c r="D89" s="123"/>
       <c r="E89" s="51"/>
-      <c r="F89" s="125"/>
-      <c r="G89" s="126"/>
-      <c r="H89" s="126"/>
+      <c r="F89" s="124"/>
+      <c r="G89" s="125"/>
+      <c r="H89" s="125"/>
       <c r="I89" s="62" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -6785,9 +6832,9 @@
       <c r="C90" s="123"/>
       <c r="D90" s="123"/>
       <c r="E90" s="51"/>
-      <c r="F90" s="125"/>
-      <c r="G90" s="126"/>
-      <c r="H90" s="126"/>
+      <c r="F90" s="124"/>
+      <c r="G90" s="125"/>
+      <c r="H90" s="125"/>
       <c r="I90" s="62" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -6825,9 +6872,9 @@
       <c r="C91" s="123"/>
       <c r="D91" s="123"/>
       <c r="E91" s="51"/>
-      <c r="F91" s="125"/>
-      <c r="G91" s="126"/>
-      <c r="H91" s="126"/>
+      <c r="F91" s="124"/>
+      <c r="G91" s="125"/>
+      <c r="H91" s="125"/>
       <c r="I91" s="62" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -6865,9 +6912,9 @@
       <c r="C92" s="123"/>
       <c r="D92" s="123"/>
       <c r="E92" s="51"/>
-      <c r="F92" s="125"/>
-      <c r="G92" s="126"/>
-      <c r="H92" s="126"/>
+      <c r="F92" s="124"/>
+      <c r="G92" s="125"/>
+      <c r="H92" s="125"/>
       <c r="I92" s="62" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -6905,9 +6952,9 @@
       <c r="C93" s="123"/>
       <c r="D93" s="123"/>
       <c r="E93" s="51"/>
-      <c r="F93" s="125"/>
-      <c r="G93" s="126"/>
-      <c r="H93" s="126"/>
+      <c r="F93" s="124"/>
+      <c r="G93" s="125"/>
+      <c r="H93" s="125"/>
       <c r="I93" s="62" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -6945,9 +6992,9 @@
       <c r="C94" s="123"/>
       <c r="D94" s="123"/>
       <c r="E94" s="51"/>
-      <c r="F94" s="125"/>
-      <c r="G94" s="126"/>
-      <c r="H94" s="126"/>
+      <c r="F94" s="124"/>
+      <c r="G94" s="125"/>
+      <c r="H94" s="125"/>
       <c r="I94" s="62" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -6985,9 +7032,9 @@
       <c r="C95" s="123"/>
       <c r="D95" s="123"/>
       <c r="E95" s="51"/>
-      <c r="F95" s="125"/>
-      <c r="G95" s="126"/>
-      <c r="H95" s="126"/>
+      <c r="F95" s="124"/>
+      <c r="G95" s="125"/>
+      <c r="H95" s="125"/>
       <c r="I95" s="62" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -7025,9 +7072,9 @@
       <c r="C96" s="123"/>
       <c r="D96" s="123"/>
       <c r="E96" s="51"/>
-      <c r="F96" s="125"/>
-      <c r="G96" s="126"/>
-      <c r="H96" s="126"/>
+      <c r="F96" s="124"/>
+      <c r="G96" s="125"/>
+      <c r="H96" s="125"/>
       <c r="I96" s="62" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -7065,9 +7112,9 @@
       <c r="C97" s="123"/>
       <c r="D97" s="123"/>
       <c r="E97" s="51"/>
-      <c r="F97" s="125"/>
-      <c r="G97" s="126"/>
-      <c r="H97" s="126"/>
+      <c r="F97" s="124"/>
+      <c r="G97" s="125"/>
+      <c r="H97" s="125"/>
       <c r="I97" s="62" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -7105,9 +7152,9 @@
       <c r="C98" s="123"/>
       <c r="D98" s="123"/>
       <c r="E98" s="51"/>
-      <c r="F98" s="125"/>
-      <c r="G98" s="126"/>
-      <c r="H98" s="126"/>
+      <c r="F98" s="124"/>
+      <c r="G98" s="125"/>
+      <c r="H98" s="125"/>
       <c r="I98" s="62" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -7145,9 +7192,9 @@
       <c r="C99" s="123"/>
       <c r="D99" s="123"/>
       <c r="E99" s="51"/>
-      <c r="F99" s="125"/>
-      <c r="G99" s="126"/>
-      <c r="H99" s="126"/>
+      <c r="F99" s="124"/>
+      <c r="G99" s="125"/>
+      <c r="H99" s="125"/>
       <c r="I99" s="62" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -14848,7 +14895,7 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P34:P317" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P80:P317 P34:P40 P43:P44" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>shirtsizes</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K1374" xr:uid="{00000000-0002-0000-0100-000001000000}">
@@ -14895,20 +14942,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="151" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="151"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="153"/>
     </row>
     <row r="2" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="152"/>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="154"/>
+      <c r="A2" s="154"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="156"/>
       <c r="L2" s="50"/>
     </row>
     <row r="3" spans="1:12" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15095,7 +15142,7 @@
         <f>B11/Einstellungen!B54</f>
         <v>1.6166666666666665</v>
       </c>
-      <c r="E11" s="139">
+      <c r="E11" s="138">
         <f>B11/Einstellungen!B55</f>
         <v>0.13472222222222222</v>
       </c>
@@ -15158,7 +15205,7 @@
         <f>B14/Einstellungen!B54</f>
         <v>1.6519787672052133</v>
       </c>
-      <c r="E14" s="139">
+      <c r="E14" s="138">
         <f>B14/Einstellungen!B55</f>
         <v>0.1376648972671011</v>
       </c>
@@ -15242,7 +15289,7 @@
         <f>B18/Einstellungen!B54</f>
         <v>1.7220759220056123</v>
       </c>
-      <c r="E18" s="140">
+      <c r="E18" s="139">
         <f>B18/Einstellungen!B55</f>
         <v>0.14350632683380102</v>
       </c>
@@ -15287,13 +15334,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="155" t="s">
+      <c r="B1" s="157" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
     </row>
     <row r="2" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
@@ -16017,7 +16064,7 @@
       <c r="F27" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="141" t="s">
+      <c r="G27" s="140" t="s">
         <v>88</v>
       </c>
     </row>
@@ -16043,7 +16090,7 @@
       <c r="F28" t="s">
         <v>47</v>
       </c>
-      <c r="G28" s="141" t="s">
+      <c r="G28" s="140" t="s">
         <v>26</v>
       </c>
     </row>
@@ -16348,21 +16395,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100CA39AF47FDE84445B2A1A204EB607015" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="02d257b5fc73ffec8ca48af1d6f0ac4f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="025d22c0-f634-4698-b91b-a929f7363a0d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9eef9cb57a7ecff21c60d28da668db25" ns2:_="">
     <xsd:import namespace="025d22c0-f634-4698-b91b-a929f7363a0d"/>
@@ -16540,30 +16572,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F155915-390F-4DB1-8323-6D9C71B4FD2C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90C8B9A1-CF49-4753-98D3-CDFF9713AD0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68C4F521-E81F-4050-A011-79AAC4B11AEB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16579,4 +16603,27 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F155915-390F-4DB1-8323-6D9C71B4FD2C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90C8B9A1-CF49-4753-98D3-CDFF9713AD0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>